--- a/biology/Médecine/Urétérostomie/Urétérostomie.xlsx
+++ b/biology/Médecine/Urétérostomie/Urétérostomie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ur%C3%A9t%C3%A9rostomie</t>
+          <t>Urétérostomie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une urétérostomie (Bricker) est une intervention chirurgicale dont le but est de faire aboucher les uretères avec la peau, au niveau de la paroi abdominale.
 Elle permet de récolter l'urine provenant des reins directement dans une poche.
